--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pakete</t>
   </si>
@@ -35,92 +35,101 @@
     <t>Verantwortlich</t>
   </si>
   <si>
-    <t>App und Routen zusammengeführt</t>
-  </si>
-  <si>
-    <t>Roh App entwickelt</t>
-  </si>
-  <si>
-    <t>GPS Daten auslesen</t>
-  </si>
-  <si>
-    <t>Karten API verwenden</t>
-  </si>
-  <si>
-    <t>Content einbinden</t>
-  </si>
-  <si>
-    <t>Mobile Laufzeitumgebungen</t>
-  </si>
-  <si>
     <t>Route geplant</t>
   </si>
   <si>
-    <t>Orte gefunden</t>
-  </si>
-  <si>
-    <t>Karte vorbereiten</t>
-  </si>
-  <si>
     <t>Testen</t>
   </si>
   <si>
-    <t>Routen</t>
-  </si>
-  <si>
-    <t>Funktionen</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(iOS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Android</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
+    <t>Benz</t>
+  </si>
+  <si>
+    <t>Niemann</t>
+  </si>
+  <si>
+    <t>Heumann</t>
+  </si>
+  <si>
+    <t>Hartmann</t>
+  </si>
+  <si>
+    <t>Bollmann</t>
+  </si>
+  <si>
+    <t>Schenkel</t>
+  </si>
+  <si>
+    <t>Henke</t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Elevatorpitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Projektvorschlag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Roh App entwickelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   GPS Daten auslesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Karten API verwenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Content einbinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Windows Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rätsel erfinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Routen bilden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Karte vorbereiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Routen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Funktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Mobile Laufzeitumgebungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Orte finden</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>Quadrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,31 +138,111 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFC0C0C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -163,14 +252,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -451,111 +562,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6">
+        <f>ROUND(SUM(D6:J6)/7,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="K7">
+        <f t="shared" ref="K7:K22" si="0">ROUND(SUM(D7:J7)/7,1)</f>
+        <v>3.4</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="L8" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="L15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="L18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>SUM(D6:D22)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
+      <c r="E23">
+        <f t="shared" ref="E23:K23" si="1">SUM(E6:E22)</f>
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>25.999999999999996</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L6:L22)</f>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D6:J22 L7:L10 L12:L22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
